--- a/Hawkes/Hawkes_paper.xlsx
+++ b/Hawkes/Hawkes_paper.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luzhang/Documents/GitHub/WrappingUp_Exploring_Intraday_Momentum/Hawkes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D732BA91-822C-4547-9449-B5B8F81DD2F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93AABA8C-9268-9A4F-86A9-ABBB5050B775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="4700" windowWidth="28040" windowHeight="17440" xr2:uid="{7A257ACF-922B-7048-968E-0FFA81D34872}"/>
+    <workbookView xWindow="7800" yWindow="7860" windowWidth="28040" windowHeight="17440" xr2:uid="{7A257ACF-922B-7048-968E-0FFA81D34872}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
   <si>
     <t>Year</t>
   </si>
@@ -117,6 +117,64 @@
   </si>
   <si>
     <t>https://ieeexplore.ieee.org/abstract/document/8673598/?casa_token=DH2RyWE_f4cAAAAA:f2rpUOTrbX-dCcrVLL1WFTZIWAJRP9sEPxMyGPio1lDgn1MgfUTfcJ25SF_WsQ23DjuUJeT5KQ</t>
+  </si>
+  <si>
+    <t>Specifically, we construct general compound Hawkes processes and investigate their properties in limit order books. With regards to these general compound Hawkes processes, we prove a Law of Large Numbers (LLN) and a Functional Central Limit Theorems (FCLT) for several specific variations. We apply several of these FCLTs to limit order books to study the link between price volatility and order flow, where the volatility in mid-price changes is expressed in terms of parameters describing the arrival rates and mid-price process.</t>
+  </si>
+  <si>
+    <t>AAPL, AMZN, GOOG, MSFT, INTC</t>
+  </si>
+  <si>
+    <t>Quantitative Finance &gt; Trading and Market Microstructure</t>
+  </si>
+  <si>
+    <t>price volatility and order flow</t>
+  </si>
+  <si>
+    <t>hawkes process, MLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our model exhibits two main properties, that we believe are crucial in the modelling and the understanding of the volatility process: first, the model is time-reversal asymmetric, similar to financial markets whose time evolution has a preferred direction. Second, it generates a multiplicative, fat-tailed volatility process, that we characterize in detail in the case of exponentially decaying kernels, and which is linked to Pearson diffusions in the continuous limit. Several other interesting properties of QHawkes processes are discussed, in particular the fact that they can generate long memory without necessarily be at the critical point. </t>
+  </si>
+  <si>
+    <t>5-min</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It includes 133 stocks of the New York Stock Exchange, that have been traded without
+interruption between 1 January 2000 and 31 December 200</t>
+  </si>
+  <si>
+    <t>5-min return, volatility</t>
+  </si>
+  <si>
+    <t>ZHawkes model</t>
+  </si>
+  <si>
+    <t>five stocks from the NASDAQ Nordic stock</t>
+  </si>
+  <si>
+    <t>Computer Science &gt; Computational Engineering, Finance, and Science</t>
+  </si>
+  <si>
+    <t>Machine Learning Methods</t>
+  </si>
+  <si>
+    <t>feature of mid-prices</t>
+  </si>
+  <si>
+    <t>J. Forecasting, vol. 37, no. 8, 852-866, 2018</t>
+  </si>
+  <si>
+    <t>one-year market quotes from the London Stock Exchange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We develop a large-scale deep learning model to predict price movements from limit order book (LOB) data of cash equities. The architecture utilizes convolutional filters to capture the spatial structure of the LOBs as well as long short-term memory modules to capture longer time dependencies. In order to better understand these features and to go beyond a “black box” model, we perform a sensitivity analysis to understand the rationale behind the model predictions and reveal the components of LOBs that are most relevant. </t>
+  </si>
+  <si>
+    <t>IEEE Transactions on Signal Processing ( Volume: 67, Issue: 11, June1, 1 2019)</t>
+  </si>
+  <si>
+    <t>mid-price</t>
   </si>
 </sst>
 </file>
@@ -505,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1084DE00-0FD2-8B4C-843B-8DE686C4F519}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="187" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -588,7 +646,7 @@
       </c>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="204" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2018</v>
       </c>
@@ -598,8 +656,26 @@
       <c r="C3" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="238" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>2015</v>
       </c>
@@ -608,11 +684,29 @@
       </c>
       <c r="C4" s="4" t="s">
         <v>22</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="85" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>23</v>
@@ -620,8 +714,23 @@
       <c r="C5" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="D5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="6" spans="1:11" ht="187" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="204" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>2019</v>
       </c>
@@ -630,6 +739,24 @@
       </c>
       <c r="C6" s="4" t="s">
         <v>26</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Hawkes/Hawkes_paper.xlsx
+++ b/Hawkes/Hawkes_paper.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luzhang/Documents/GitHub/WrappingUp_Exploring_Intraday_Momentum/Hawkes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93AABA8C-9268-9A4F-86A9-ABBB5050B775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F873E79-C8AA-9A46-857E-A7A29EF2A430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7800" yWindow="7860" windowWidth="28040" windowHeight="17440" xr2:uid="{7A257ACF-922B-7048-968E-0FFA81D34872}"/>
   </bookViews>
@@ -564,7 +564,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Hawkes/Hawkes_paper.xlsx
+++ b/Hawkes/Hawkes_paper.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luzhang/Documents/GitHub/WrappingUp_Exploring_Intraday_Momentum/Hawkes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F873E79-C8AA-9A46-857E-A7A29EF2A430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01201344-9108-2143-A38A-432E9B78DC14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7800" yWindow="7860" windowWidth="28040" windowHeight="17440" xr2:uid="{7A257ACF-922B-7048-968E-0FFA81D34872}"/>
+    <workbookView xWindow="1560" yWindow="1960" windowWidth="28040" windowHeight="17440" xr2:uid="{7A257ACF-922B-7048-968E-0FFA81D34872}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
   <si>
     <t>Year</t>
   </si>
@@ -175,13 +175,16 @@
   </si>
   <si>
     <t>mid-price</t>
+  </si>
+  <si>
+    <t>This paper describes the first publicly available benchmark dataset of high-frequency limit order markets for mid-price prediction. A day-based anchored cross-validation experimental protocol is also provided that can be used as a benchmark for comparing the performance of state-of-the-art methodologies. Performance of baseline approaches are also provided to facilitate experimental comparisons. We expect that such a large-scale dataset can serve as a testbed for devising novel solutions of expert systems for high-frequency limit order book data analysis</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -210,6 +213,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -232,7 +242,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -244,6 +254,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -563,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1084DE00-0FD2-8B4C-843B-8DE686C4F519}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="110" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -573,7 +586,7 @@
     <col min="2" max="2" width="21.6640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="28" style="2" customWidth="1"/>
     <col min="4" max="4" width="13" style="2" customWidth="1"/>
-    <col min="5" max="5" width="43.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="58.1640625" style="2" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" style="2" customWidth="1"/>
     <col min="7" max="7" width="15.6640625" style="2" customWidth="1"/>
     <col min="8" max="8" width="14.33203125" style="2" customWidth="1"/>
@@ -616,7 +629,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="168" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="140" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>2018</v>
       </c>
@@ -646,7 +659,7 @@
       </c>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:11" ht="204" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="153" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2018</v>
       </c>
@@ -675,7 +688,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="238" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="187" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>2015</v>
       </c>
@@ -704,8 +717,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="85" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+    <row r="5" spans="1:11" ht="153" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
         <v>2018</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -717,6 +730,9 @@
       <c r="D5" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="E5" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="F5" s="2" t="s">
         <v>37</v>
       </c>
@@ -730,7 +746,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="204" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="153" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>2019</v>
       </c>

--- a/Hawkes/Hawkes_paper.xlsx
+++ b/Hawkes/Hawkes_paper.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luzhang/Documents/GitHub/WrappingUp_Exploring_Intraday_Momentum/Hawkes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01201344-9108-2143-A38A-432E9B78DC14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3FB53ED-D4EE-0A4E-92AF-CD4358F3445E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1960" windowWidth="28040" windowHeight="17440" xr2:uid="{7A257ACF-922B-7048-968E-0FFA81D34872}"/>
   </bookViews>
@@ -576,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1084DE00-0FD2-8B4C-843B-8DE686C4F519}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="110" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="110" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
